--- a/src/ExcelsiorClosedXml.Tests/Render.Fluent.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Render.Fluent.verified.xlsx
@@ -455,7 +455,7 @@
     <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -478,7 +478,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A2" s="1">
         <x:v>1</x:v>
       </x:c>
@@ -501,7 +501,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A3" s="1">
         <x:v>2</x:v>
       </x:c>
@@ -524,7 +524,7 @@
         <x:v>10</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A4" s="1">
         <x:v>3</x:v>
       </x:c>
@@ -547,7 +547,7 @@
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:7" ht="14.25" customHeight="1">
       <x:c r="A5" s="1">
         <x:v>4</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/Render.Fluent.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Render.Fluent.verified.xlsx
@@ -446,13 +446,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="15.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="14.25" customHeight="1">
